--- a/T1.xlsx
+++ b/T1.xlsx
@@ -471,82 +471,82 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Consignee Name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Destination</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Dest Branch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Booking Type</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Customer Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Contract Price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Planned Quantity</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>TDCs</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Delivery Date</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Rail/Road Ind</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Consignee Name</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Destination</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Quality</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>D4</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -589,76 +589,76 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>B034(BSO BARODA)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>HR COILS</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>IS 2062 E250BR</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>19000010</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>MOU</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Western Region</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>39200</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NS001</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NS001:D_E250BR</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>31.01.2025</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>DD - Rail</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NSL MILL DESP.TYPE : Direct Dispatch</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NSL MILL</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>b) In case of any defect in the product or product not meeting the agreed specifications/TDC or TC, the same shall be dealt as per the SAILs extant Quality Complaint Policy.</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
           <t>1900001063.pdf</t>
@@ -699,76 +699,76 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>B034(BSO BARODA)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>HR COILS</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>IS 2062 E250BR</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>19000010</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>MOU</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Western Region</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>39200</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NS001</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NS001:D_E250BR</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>31.01.2025</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>DD - Rail</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NSL MILL DESP.TYPE : Direct Dispatch</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NSL MILL</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>b) In case of any defect in the product or product not meeting the agreed specifications/TDC or TC, the same shall be dealt as per the SAILs extant Quality Complaint Policy.</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
           <t>1900001064.pdf</t>
@@ -809,76 +809,76 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>B034(BSO BARODA)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>HR COILS</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>IS 2062 E250BR</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>19000010</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>MOU</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Western Region</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>39200</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NS001</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NS001:D_E250BR</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>31.01.2025</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>DD - Rail</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NSL MILL DESP.TYPE : Direct Dispatch</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NSL MILL</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>b) In case of any defect in the product or product not meeting the agreed specifications/TDC or TC, the same shall be dealt as per the SAILs extant Quality Complaint Policy.</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
           <t>1900001065.pdf</t>
@@ -919,78 +919,74 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>B033(BSO AHMEDABAD)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>HR COILS</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>IS 2062 E350 BR</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>19000015</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>BRQ</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>BRM</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Western Region</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>41870</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NS001</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NS001:D_E250BR</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>31.01.2025</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Rail - WH</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>NSL MILL DESP.TYPE : Stockyard</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NSL MILL</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>b) In case of any defect in the product or product not meeting the agreed specifications/TDC or TC, the same shall be dealt as per the SAILs extant Quality Complaint Policy.</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Planned Quantity ( TO ) 128.000</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1033,78 +1029,74 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>B033(BSO AHMEDABAD)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>HR COILS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>IS 2062 E350 BR</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>19000015</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>BRQ</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>BRM</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Western Region</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>41870</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NS001</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NS001:D_E250BR</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>31.01.2025</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Rail - WH</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NSL MILL DESP.TYPE : Stockyard</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NSL MILL</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>b) In case of any defect in the product or product not meeting the agreed specifications/TDC or TC, the same shall be dealt as per the SAILs extant Quality Complaint Policy.</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Planned Quantity ( TO ) 128.000</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -587,14 +587,10 @@
           <t>1000134558</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>INVOICE IN THE NAME OF NOHAR CHAND LOHA BHANDAR , UMESH R SHARMA, KATHLAL ROAD, KANBHA, AHMEDABAD, Gujarat, 382430 NOHAR CHAND LOHA BHANDAR , UMESH R SHARMA, KATHLAL ROAD, KANBHA, AHMEDABAD, Gujarat, 382430. KKF - KANKARIYA W.RLY</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -697,14 +693,10 @@
           <t>1000134558</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>INVOICE IN THE NAME OF NOHAR CHAND LOHA BHANDAR , UMESH R SHARMA, KATHLAL ROAD, KANBHA, AHMEDABAD, Gujarat, 382430 NOHAR CHAND LOHA BHANDAR , UMESH R SHARMA, KATHLAL ROAD, KANBHA, AHMEDABAD, Gujarat, 382430. KKF - KANKARIYA W.RLY</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -807,14 +799,10 @@
           <t>1000134558</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>INVOICE IN THE NAME OF NOHAR CHAND LOHA BHANDAR , UMESH R SHARMA, KATHLAL ROAD, KANBHA, AHMEDABAD, Gujarat, 382430 NOHAR CHAND LOHA BHANDAR , UMESH R SHARMA, KATHLAL ROAD, KANBHA, AHMEDABAD, Gujarat, 382430. KKF - KANKARIYA W.RLY</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -917,14 +905,10 @@
           <t>1000140822</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>INVOICE IN THE NAME OF</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1027,14 +1011,10 @@
           <t>1000140822</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>INVOICE IN THE NAME OF</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
